--- a/テスト仕様書/演習1.xlsx
+++ b/テスト仕様書/演習1.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E27"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1193,22 +1193,32 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
@@ -1225,32 +1235,22 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書/演習1.xlsx
+++ b/テスト仕様書/演習1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9650" windowHeight="4440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9650" windowHeight="4440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>演習1　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -394,13 +395,249 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常に野球チーム一覧が表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/ex-intermediate/ex01に接続する</t>
+    <rPh sb="43" eb="45">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野球チーム一覧画面が表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが開かれていること
+・[SQLシート]のSQLが実行されていること</t>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS teams CASCADE;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE teams(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id serial primary key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    league_name text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    team_name text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    headquarters text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    inauguration text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    history text</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','読売ジャイアンツ','東京ドーム（東京都・文京区）','1934年12月26日','大日本東京野球倶楽部（1934年）</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>東京巨人軍（1935年〜1946年）</t>
+  </si>
+  <si>
+    <t>読売ジャイアンツ（1947年〜）');</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','阪神タイガース','阪神甲子園球場（兵庫県・西宮市）','1935年12月10日','大阪タイガース（1935年〜1940年途）</t>
+  </si>
+  <si>
+    <t>阪神軍（1940年途〜1946年）</t>
+  </si>
+  <si>
+    <t>大阪タイガース（1947年〜1960年）→阪神タイガース（1961年〜）');</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','中日ドラゴンズ','ナゴヤドーム（愛知県・名古屋市東区）','1936年1月15日','名古屋軍（1936年〜1943年）</t>
+  </si>
+  <si>
+    <t>産業軍（1944年）</t>
+  </si>
+  <si>
+    <t>中部日本軍（1946年）</t>
+  </si>
+  <si>
+    <t>中日ドラゴンズ（1947年〜1950年）</t>
+  </si>
+  <si>
+    <t>名古屋ドラゴンズ（1951年〜1953年）</t>
+  </si>
+  <si>
+    <t>中日ドラゴンズ（1954年〜）');</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','横浜DeNAベイスターズ','横浜スタジアム（神奈川県・横浜市中区）','1949年11月22日','大洋ホエールズ（1950年〜1952年）</t>
+  </si>
+  <si>
+    <t>大洋松竹ロビンス（1953年〜1954年）</t>
+  </si>
+  <si>
+    <t>大洋ホエールズ（1955年〜1977年）</t>
+  </si>
+  <si>
+    <t>横浜大洋ホエールズ（1978年〜1992年）</t>
+  </si>
+  <si>
+    <t>横浜ベイスターズ（1993年〜2011年）</t>
+  </si>
+  <si>
+    <t>横浜DeNAベイスターズ（2012年〜）');</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','広島東洋カープ','MAZDA Zoom-Zoomスタジアム広島（広島県・広島市南区）','1949年12月15日','広島カープ（1950年〜1967年）</t>
+  </si>
+  <si>
+    <t>広島東洋カープ（1968年〜）'),</t>
+  </si>
+  <si>
+    <t>('セントラル・リーグ','東京ヤクルトスワローズ','明治神宮野球場（東京都・新宿区）','1950年1月12日','国鉄スワローズ（1950年〜1965年途）</t>
+  </si>
+  <si>
+    <t>サンケイスワローズ（1965年途〜終了）</t>
+  </si>
+  <si>
+    <t>サンケイアトムズ（1966年〜1968年）</t>
+  </si>
+  <si>
+    <t>アトムズ（1969年）</t>
+  </si>
+  <si>
+    <t>ヤクルトアトムズ（1970年〜1973年）</t>
+  </si>
+  <si>
+    <t>ヤクルトスワローズ（1974年〜2005年）</t>
+  </si>
+  <si>
+    <t>東京ヤクルトスワローズ（2006年〜）');</t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS hotels CASCADE;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE hotels(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    area_name text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hotel_name text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    address text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nearest_station text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parking text</t>
+  </si>
+  <si>
+    <t>INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (</t>
+  </si>
+  <si>
+    <t>'首都圏','横浜ベイホテル東急','神奈川県横浜市西区みなとみらい２－３－７','桜木町駅','10000','あり');</t>
+  </si>
+  <si>
+    <t>'首都圏','パレスホテル東京','東京都千代田区丸の内１丁目１−１','東京駅','20000','なし');</t>
+  </si>
+  <si>
+    <t>'首都圏','ホテルローズガーデン新宿','東京都新宿区西新宿８−１−３','西新宿駅','5000','あり');</t>
+  </si>
+  <si>
+    <t>'首都圏','渋谷エクセルホテル東急','東京都渋谷区道玄坂１−１２−２','渋谷駅','10000','なし');</t>
+  </si>
+  <si>
+    <t>'首都圏','東京ベイ舞浜ホテル','千葉県浦安市舞浜１−３４','舞浜駅','15000','あり');</t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS clothes CASCADE;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE clothes(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    category text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    genre text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gender integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    color text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    size text</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','パンツ　　',0,'白',20000,'M');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','Ｔシャツ　',1,'青',5000,'M');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','帽子　　　',1,'白',10000,'S');</t>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'黄',15000,'L');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +669,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -461,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +727,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,18 +1023,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="28.36328125" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
@@ -776,7 +1042,7 @@
     <col min="9" max="9" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -786,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -794,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -822,64 +1088,109 @@
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="13" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -893,16 +1204,27 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -912,8 +1234,19 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -923,8 +1256,19 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -934,8 +1278,19 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -949,16 +1304,27 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -968,8 +1334,19 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -979,8 +1356,19 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -990,8 +1378,19 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1005,16 +1404,27 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1024,8 +1434,19 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1035,8 +1456,19 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1046,8 +1478,19 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1061,16 +1504,27 @@
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1080,8 +1534,19 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1091,8 +1556,19 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1102,8 +1578,19 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1117,57 +1604,113 @@
         <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1175,7 +1718,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1183,7 +1726,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1191,23 +1734,79 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+  <mergeCells count="67">
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="A16:A19"/>
@@ -1216,43 +1815,545 @@
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/テスト仕様書/演習1.xlsx
+++ b/テスト仕様書/演習1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace\ex-intermediate\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace2\ex-intermediate\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>演習1　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -542,45 +542,6 @@
   </si>
   <si>
     <t>東京ヤクルトスワローズ（2006年〜）');</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    price integer,</t>
-  </si>
-  <si>
-    <t>DROP TABLE IF EXISTS clothes CASCADE;</t>
-  </si>
-  <si>
-    <t>CREATE TABLE clothes(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    category text,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    genre text,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    gender integer,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    color text,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    size text</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','パンツ　　',0,'白',20000,'M');</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','Ｔシャツ　',1,'青',5000,'M');</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','帽子　　　',1,'白',10000,'S');</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'黄',15000,'L');</t>
   </si>
   <si>
     <t>・ブラウザが開かれていること
@@ -696,13 +657,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -1052,27 +1013,27 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="13" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1086,15 +1047,15 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1108,15 +1069,15 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1130,15 +1091,15 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1152,27 +1113,27 @@
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1186,15 +1147,15 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1208,15 +1169,15 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1230,15 +1191,15 @@
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1252,27 +1213,27 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1286,15 +1247,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1308,15 +1269,15 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1330,15 +1291,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1352,27 +1313,27 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1386,15 +1347,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1408,15 +1369,15 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1430,15 +1391,15 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1452,27 +1413,27 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1486,15 +1447,15 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1508,15 +1469,15 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1530,15 +1491,15 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1552,27 +1513,27 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1586,15 +1547,15 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1608,15 +1569,15 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1630,15 +1591,15 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1652,121 +1613,120 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
@@ -1783,31 +1743,32 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="G16:G19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2134,81 +2095,6 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6"/>
     </row>
